--- a/docs/Mapping_casi_uso/cittadinanza/Citt_048.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_048.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="44">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -54,6 +57,9 @@
   </si>
   <si>
     <t>numeroatto</t>
+  </si>
+  <si>
+    <t>obbligatoria</t>
   </si>
   <si>
     <t>Data formazione</t>
@@ -196,7 +202,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -208,6 +214,7 @@
     <col min="4" max="4" width="33.921875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -229,25 +236,31 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -269,285 +282,330 @@
       <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_048.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_048.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Formula</t>
@@ -214,7 +214,7 @@
     <col min="4" max="4" width="33.921875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_048.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_048.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="45">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,19 +32,22 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>888</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>888</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -283,329 +286,329 @@
         <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_048.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_048.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="47">
   <si>
     <t>Sezione</t>
   </si>
@@ -35,6 +35,18 @@
     <t>Condizioni obbligatorieta'</t>
   </si>
   <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Allegato generico</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -44,9 +56,6 @@
     <t>SI</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
@@ -87,9 +96,6 @@
   </si>
   <si>
     <t>Id atto</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
   <si>
     <t>evento.datiRettifica.eventoCollegato</t>
@@ -205,7 +211,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -267,63 +273,63 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
@@ -332,90 +338,90 @@
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>29</v>
@@ -424,21 +430,21 @@
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>31</v>
@@ -447,21 +453,21 @@
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>33</v>
@@ -470,21 +476,21 @@
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>35</v>
@@ -493,122 +499,145 @@
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>16</v>
+      <c r="B18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
